--- a/Resources/COLLIDER  계산기.xlsx
+++ b/Resources/COLLIDER  계산기.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch970\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Directx2D\D2D11EG\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012F507E-A63A-4C28-A54B-2B5D6BCB9CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43B2D5-92A1-4557-BCC4-C9D04B3E0D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13B5C987-E896-4239-B02E-1554C7C897D0}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -691,10 +691,10 @@
         <v>15</v>
       </c>
       <c r="M15">
-        <v>3.25</v>
+        <v>-9.58</v>
       </c>
       <c r="N15">
-        <v>-12.23</v>
+        <v>20.756</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -702,10 +702,10 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>-4.3680000000000003</v>
+        <v>-14.83</v>
       </c>
       <c r="N16">
-        <v>-13.67</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="18" spans="11:15" x14ac:dyDescent="0.4">
@@ -717,7 +717,7 @@
       </c>
       <c r="M18">
         <f>SUM(M15,-M16)</f>
-        <v>7.6180000000000003</v>
+        <v>5.25</v>
       </c>
       <c r="O18" t="s">
         <v>12</v>
@@ -732,7 +732,7 @@
       </c>
       <c r="M19">
         <f>SUM(N15,-N16)</f>
-        <v>1.4399999999999995</v>
+        <v>7.2260000000000009</v>
       </c>
     </row>
     <row r="20" spans="11:15" x14ac:dyDescent="0.4">
@@ -749,11 +749,11 @@
       </c>
       <c r="M21">
         <f>SUM(M16,M18/2)</f>
-        <v>-0.55900000000000016</v>
+        <v>-12.205</v>
       </c>
       <c r="N21">
         <f>SUM(N16,M19/2)</f>
-        <v>-12.95</v>
+        <v>17.143000000000001</v>
       </c>
       <c r="O21" t="s">
         <v>23</v>
@@ -775,11 +775,11 @@
       </c>
       <c r="M23">
         <f>SUM(M21,M22)</f>
-        <v>-0.8490000000000002</v>
+        <v>-12.495000000000001</v>
       </c>
       <c r="N23">
         <f>SUM(N21,N22)</f>
-        <v>-12.72</v>
+        <v>17.372999999999998</v>
       </c>
       <c r="O23" t="s">
         <v>9</v>

--- a/Resources/COLLIDER  계산기.xlsx
+++ b/Resources/COLLIDER  계산기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Directx2D\D2D11EG\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43B2D5-92A1-4557-BCC4-C9D04B3E0D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CE8027-9A3F-48FC-988C-BAED5BA892E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13B5C987-E896-4239-B02E-1554C7C897D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13B5C987-E896-4239-B02E-1554C7C897D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D16F995-4184-47AE-A0A7-A1175C6829E6}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -702,7 +702,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>-14.83</v>
+        <v>-24.754999999999999</v>
       </c>
       <c r="N16">
         <v>13.53</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="M18">
         <f>SUM(M15,-M16)</f>
-        <v>5.25</v>
+        <v>15.174999999999999</v>
       </c>
       <c r="O18" t="s">
         <v>12</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="M21">
         <f>SUM(M16,M18/2)</f>
-        <v>-12.205</v>
+        <v>-17.1675</v>
       </c>
       <c r="N21">
         <f>SUM(N16,M19/2)</f>
@@ -775,7 +775,7 @@
       </c>
       <c r="M23">
         <f>SUM(M21,M22)</f>
-        <v>-12.495000000000001</v>
+        <v>-17.4575</v>
       </c>
       <c r="N23">
         <f>SUM(N21,N22)</f>
